--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraya\Desktop\College stuff\Fall 2017\ECE 369\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben Purdy\Documents\ECE369\ECE369-Lab8-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9083" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Control Signals</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
   <si>
     <t>PCSrc</t>
   </si>
@@ -35,15 +32,6 @@
     <t>RegWrite</t>
   </si>
   <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>EX</t>
-  </si>
-  <si>
     <t>ALUSrc</t>
   </si>
   <si>
@@ -69,13 +57,139 @@
   </si>
   <si>
     <t>Msub</t>
+  </si>
+  <si>
+    <t>Instruction\Control Signals</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>HiOrLo</t>
+  </si>
+  <si>
+    <t>HiToReg</t>
+  </si>
+  <si>
+    <t>DontMove</t>
+  </si>
+  <si>
+    <t>MoveOnNotZero</t>
+  </si>
+  <si>
+    <t>Arithmatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>mult (uses hi/lo)</t>
+  </si>
+  <si>
+    <t>multu (uses hi/lo)</t>
+  </si>
+  <si>
+    <t>madd (multiply &amp; add to hi/lo)</t>
+  </si>
+  <si>
+    <t>msub (multiply &amp; sub to hi/lo)</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>seh  (sign-extend halfword)</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sllv (shift word logical variable)</t>
+  </si>
+  <si>
+    <t>srlv (shift word logical variable)</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>movn (move conditional on not zero)</t>
+  </si>
+  <si>
+    <t>movz (move conditional on zero)</t>
+  </si>
+  <si>
+    <t>rotrv (rotate word right variable)</t>
+  </si>
+  <si>
+    <t>rotr (rotate word right)</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>srav</t>
+  </si>
+  <si>
+    <t>seb (sign-extend byte)</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>sltu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +205,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,14 +247,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,93 +635,1909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="29.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="5.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="7.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.73046875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.06640625" style="1"/>
+    <col min="17" max="17" width="14.19921875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>14</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>21</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10988" windowHeight="9083" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10992" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +395,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,40 +727,40 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.9296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="3"/>
-    <col min="11" max="11" width="5.796875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.1328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="3"/>
+    <col min="11" max="11" width="5.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="3"/>
-    <col min="15" max="15" width="7.19921875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.265625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.19921875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="7.73046875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.06640625" style="3"/>
-    <col min="20" max="20" width="14.19921875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.06640625" style="3"/>
-    <col min="22" max="22" width="10.73046875" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.06640625" style="3"/>
+    <col min="14" max="14" width="9.109375" style="3"/>
+    <col min="15" max="15" width="7.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="3"/>
+    <col min="20" max="20" width="14.21875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="3"/>
+    <col min="22" max="22" width="10.77734375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -839,7 +842,7 @@
       <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="19">
         <v>0</v>
       </c>
       <c r="I2" s="6">
@@ -881,7 +884,7 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -901,7 +904,7 @@
       <c r="G3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="15">
         <v>12</v>
       </c>
       <c r="I3" s="9">
@@ -943,7 +946,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -963,7 +966,7 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="15">
         <v>3</v>
       </c>
       <c r="I4" s="9">
@@ -1005,16 +1008,18 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" s="5">
-        <v>100111</v>
+        <v>1011</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -1025,8 +1030,8 @@
       <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
-        <v>6</v>
+      <c r="H5" s="15">
+        <v>21</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -1059,24 +1064,26 @@
         <v>0</v>
       </c>
       <c r="S5" s="9">
-        <v>1</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="5">
-        <v>100101</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -1087,8 +1094,8 @@
       <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
-        <v>4</v>
+      <c r="H6" s="15">
+        <v>21</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
@@ -1121,44 +1128,44 @@
         <v>0</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>47</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5">
-        <v>10</v>
+        <v>11000</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
-        <v>9</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -1175,14 +1182,14 @@
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="9">
-        <v>1</v>
+      <c r="P7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="9">
-        <v>0</v>
+      <c r="R7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="S7" s="9">
         <v>1</v>
@@ -1193,36 +1200,36 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>46</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5">
-        <v>110</v>
+        <v>11001</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
+      <c r="H8" s="15">
+        <v>13</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -1239,14 +1246,14 @@
       <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P8" s="9">
-        <v>1</v>
+      <c r="P8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="9">
-        <v>0</v>
+      <c r="R8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="S8" s="9">
         <v>1</v>
@@ -1257,18 +1264,16 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>100111</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -1279,8 +1284,8 @@
       <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
-        <v>7</v>
+      <c r="H9" s="15">
+        <v>6</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -1321,82 +1326,80 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6" t="s">
+        <v>100101</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5">
-        <v>101010</v>
+        <v>10</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -1407,8 +1410,8 @@
       <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="9">
-        <v>14</v>
+      <c r="H11" s="15">
+        <v>9</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -1449,18 +1452,18 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5">
-        <v>101011</v>
+        <v>110</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -1471,8 +1474,8 @@
       <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
-        <v>16</v>
+      <c r="H12" s="15">
+        <v>20</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
@@ -1513,9 +1516,9 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -1524,7 +1527,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -1535,8 +1538,8 @@
       <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
-        <v>10</v>
+      <c r="H13" s="15">
+        <v>7</v>
       </c>
       <c r="I13" s="9">
         <v>1</v>
@@ -1577,9 +1580,9 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -1588,71 +1591,71 @@
         <v>58</v>
       </c>
       <c r="D14" s="5">
-        <v>111</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>1</v>
-      </c>
-      <c r="T14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5">
-        <v>10</v>
+        <v>101010</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
@@ -1663,8 +1666,8 @@
       <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="9">
-        <v>8</v>
+      <c r="H15" s="15">
+        <v>14</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
@@ -1705,18 +1708,18 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5">
-        <v>110</v>
+        <v>101011</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
@@ -1727,8 +1730,8 @@
       <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
-        <v>18</v>
+      <c r="H16" s="15">
+        <v>16</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -1769,16 +1772,18 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
-        <v>23</v>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="5">
-        <v>100010</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9">
         <v>0</v>
@@ -1789,8 +1794,8 @@
       <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
-        <v>1</v>
+      <c r="H17" s="15">
+        <v>10</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
@@ -1831,16 +1836,18 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="5">
-        <v>100110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -1851,8 +1858,8 @@
       <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="9">
-        <v>5</v>
+      <c r="H18" s="15">
+        <v>19</v>
       </c>
       <c r="I18" s="9">
         <v>1</v>
@@ -1893,18 +1900,18 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5">
-        <v>1011</v>
+        <v>10</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -1915,8 +1922,8 @@
       <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="9">
-        <v>21</v>
+      <c r="H19" s="15">
+        <v>8</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -1949,26 +1956,26 @@
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5">
-        <v>1010</v>
+        <v>110</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
@@ -1979,8 +1986,8 @@
       <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
-        <v>21</v>
+      <c r="H20" s="15">
+        <v>18</v>
       </c>
       <c r="I20" s="9">
         <v>1</v>
@@ -2013,44 +2020,42 @@
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <v>11000</v>
+        <v>100010</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
       </c>
       <c r="F21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>19</v>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
       </c>
       <c r="J21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -2067,14 +2072,14 @@
       <c r="O21" s="9">
         <v>0</v>
       </c>
-      <c r="P21" s="9" t="s">
-        <v>19</v>
+      <c r="P21" s="9">
+        <v>1</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>19</v>
+      <c r="R21" s="9">
+        <v>0</v>
       </c>
       <c r="S21" s="9">
         <v>1</v>
@@ -2085,36 +2090,34 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
-        <v>26</v>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <v>11001</v>
+        <v>100110</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>13</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>19</v>
+      <c r="H22" s="15">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
       </c>
       <c r="J22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -2131,14 +2134,14 @@
       <c r="O22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>19</v>
+      <c r="P22" s="9">
+        <v>1</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>19</v>
+      <c r="R22" s="9">
+        <v>0</v>
       </c>
       <c r="S22" s="9">
         <v>1</v>
@@ -2149,7 +2152,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
@@ -2158,58 +2161,58 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
-      <c r="M23" s="18">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
-        <v>0</v>
-      </c>
-      <c r="O23" s="18">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="18">
-        <v>0</v>
-      </c>
-      <c r="S23" s="18">
-        <v>1</v>
-      </c>
-      <c r="T23" s="18" t="s">
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0</v>
+      </c>
+      <c r="S23" s="15">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="15">
         <v>12</v>
       </c>
       <c r="I24" s="9">
@@ -2269,7 +2272,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2290,7 @@
       <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="15">
         <v>14</v>
       </c>
       <c r="I25" s="9">
@@ -2329,7 +2332,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="15">
         <v>16</v>
       </c>
       <c r="I26" s="9">
@@ -2387,7 +2390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
@@ -2405,7 +2408,7 @@
       <c r="G27" s="9">
         <v>1</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="15">
         <v>3</v>
       </c>
       <c r="I27" s="9">
@@ -2445,7 +2448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="G28" s="9">
         <v>1</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="15">
         <v>4</v>
       </c>
       <c r="I28" s="9">
@@ -2503,7 +2506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2521,7 +2524,7 @@
       <c r="G29" s="9">
         <v>1</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="15">
         <v>5</v>
       </c>
       <c r="I29" s="9">
@@ -2561,39 +2564,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5">
         <v>11100</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="15">
         <v>2</v>
       </c>
-      <c r="I30" s="9">
-        <v>1</v>
+      <c r="I30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
@@ -2607,14 +2610,14 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-      <c r="P30" s="9">
-        <v>1</v>
+      <c r="P30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R30" s="9">
-        <v>0</v>
+      <c r="R30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="S30" s="9">
         <v>1</v>
@@ -2623,9 +2626,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>11100</v>
@@ -2634,7 +2637,7 @@
         <v>59</v>
       </c>
       <c r="D31" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
@@ -2645,7 +2648,7 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="15">
         <v>2</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -2655,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="9">
         <v>0</v>
@@ -2685,33 +2688,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>11100</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="15">
         <v>2</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>19</v>
+      <c r="I32" s="9">
+        <v>1</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
@@ -2720,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
         <v>0</v>
@@ -2731,14 +2734,14 @@
       <c r="O32" s="9">
         <v>0</v>
       </c>
-      <c r="P32" s="9" t="s">
-        <v>19</v>
+      <c r="P32" s="9">
+        <v>1</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>19</v>
+      <c r="R32" s="9">
+        <v>0</v>
       </c>
       <c r="S32" s="9">
         <v>1</v>
@@ -2747,7 +2750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>50</v>
       </c>
@@ -2769,7 +2772,7 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="15">
         <v>15</v>
       </c>
       <c r="I33" s="9">
@@ -2809,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -2831,7 +2834,7 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="15">
         <v>11</v>
       </c>
       <c r="I34" s="9">
@@ -2871,127 +2874,126 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S35" s="15" t="s">
+      <c r="S35" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P36" s="17" t="s">
+      <c r="P36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R36" s="17" t="s">
+      <c r="R36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="17" t="s">
+      <c r="S36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="17" t="s">
+      <c r="T36" s="18" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:T36">
     <sortCondition ref="B2:B36"/>
-    <sortCondition descending="1" ref="F2:F36"/>
-    <sortCondition descending="1" ref="S2:S36"/>
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -751,10 +751,10 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T37" sqref="T37"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2957,7 +2957,9 @@
       <c r="G34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>21</v>
+      </c>
       <c r="I34" s="10" t="s">
         <v>19</v>
       </c>
@@ -3020,7 +3022,9 @@
       <c r="G35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="11">
+        <v>21</v>
+      </c>
       <c r="I35" s="10" t="s">
         <v>19</v>
       </c>

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben Purdy\Documents\ECE369\ECE369-Lab8-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraya\Desktop\College stuff\Fall 2017\ECE 369\LAB8-11\ECE369-Lab8-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10990" windowHeight="3520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10992" windowHeight="3516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="90">
   <si>
     <t>PCSrc</t>
   </si>
@@ -292,12 +292,18 @@
   </si>
   <si>
     <t>[20-16] = 00000</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>JumpAndLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
@@ -840,44 +846,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="5.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" style="1"/>
-    <col min="16" max="16" width="7.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.08984375" style="1"/>
-    <col min="21" max="21" width="14.1796875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.08984375" style="1"/>
-    <col min="23" max="23" width="10.81640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="7.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1"/>
+    <col min="21" max="21" width="14.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="13.109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -941,8 +947,14 @@
       <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -1004,10 +1016,16 @@
       <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
@@ -1067,10 +1085,16 @@
       <c r="U3" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -1130,10 +1154,16 @@
       <c r="U4" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1193,10 +1223,16 @@
       <c r="U5" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1256,10 +1292,16 @@
       <c r="U6" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -1317,10 +1359,16 @@
       <c r="U7" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -1378,10 +1426,16 @@
       <c r="U8" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1441,10 +1495,16 @@
       <c r="U9" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1506,10 +1566,16 @@
       <c r="U10" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -1569,10 +1635,16 @@
       <c r="U11" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>79</v>
       </c>
@@ -1632,10 +1704,16 @@
       <c r="U12" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -1699,10 +1777,16 @@
       <c r="U13" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
@@ -1766,10 +1850,16 @@
       <c r="U14" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -1833,10 +1923,16 @@
       <c r="U15" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -1900,10 +1996,16 @@
       <c r="U16" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1965,10 +2067,16 @@
       <c r="U17" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
@@ -2028,10 +2136,16 @@
       <c r="U18" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -2093,10 +2207,16 @@
       <c r="U19" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -2156,10 +2276,16 @@
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -2221,10 +2347,16 @@
       <c r="U21" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -2284,10 +2416,16 @@
       <c r="U22" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -2349,10 +2487,16 @@
       <c r="U23" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -2416,10 +2560,16 @@
       <c r="U24" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
@@ -2483,10 +2633,16 @@
       <c r="U25" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
@@ -2550,8 +2706,14 @@
       <c r="U26" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
@@ -2615,8 +2777,14 @@
       <c r="U27" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
@@ -2680,8 +2848,14 @@
       <c r="U28" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>19</v>
       </c>
@@ -2743,8 +2917,14 @@
       <c r="U29" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -2804,8 +2984,14 @@
       <c r="U30" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>24</v>
       </c>
@@ -2869,8 +3055,14 @@
       <c r="U31" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -2934,8 +3126,14 @@
       <c r="U32" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2995,8 +3193,14 @@
       <c r="U33" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>47</v>
       </c>
@@ -3060,8 +3264,14 @@
       <c r="U34" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" s="7">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
@@ -3125,8 +3335,14 @@
       <c r="U35" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>48</v>
       </c>
@@ -3186,8 +3402,14 @@
       <c r="U36" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -3251,8 +3473,14 @@
       <c r="U37" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -3316,8 +3544,14 @@
       <c r="U38" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>46</v>
       </c>
@@ -3381,8 +3615,14 @@
       <c r="U39" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +3686,14 @@
       <c r="U40" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -3511,8 +3757,14 @@
       <c r="U41" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -3576,8 +3828,14 @@
       <c r="U42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>66</v>
       </c>
@@ -3641,8 +3899,14 @@
       <c r="U43" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>64</v>
       </c>
@@ -3706,8 +3970,14 @@
       <c r="U44" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>76</v>
       </c>
@@ -3767,8 +4037,14 @@
       <c r="U45" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>82</v>
       </c>
@@ -3830,8 +4106,14 @@
       <c r="U46" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>81</v>
       </c>
@@ -3893,8 +4175,14 @@
       <c r="U47" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>80</v>
       </c>
@@ -3956,8 +4244,14 @@
       <c r="U48" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>77</v>
       </c>
@@ -4019,8 +4313,14 @@
       <c r="U49" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V49" s="7">
+        <v>0</v>
+      </c>
+      <c r="W49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
@@ -4084,8 +4384,14 @@
       <c r="U50" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
@@ -4149,8 +4455,14 @@
       <c r="U51" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V51" s="7">
+        <v>0</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>84</v>
       </c>
@@ -4161,25 +4473,65 @@
       <c r="D52" s="18">
         <v>1000</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0</v>
+      </c>
+      <c r="M52" s="14">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V52" s="8">
+        <v>1</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>83</v>
       </c>
@@ -4188,25 +4540,65 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V53" s="8">
+        <v>1</v>
+      </c>
+      <c r="W53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>85</v>
       </c>
@@ -4215,23 +4607,63 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
+      <c r="E54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <v>0</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V54" s="8">
+        <v>1</v>
+      </c>
+      <c r="W54" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:U54">

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10990" windowHeight="3520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10988" windowHeight="3518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="90">
   <si>
     <t>PCSrc</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>[20-16] = 00000</t>
+  </si>
+  <si>
+    <t>LoadExtended</t>
+  </si>
+  <si>
+    <t>Lb</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -447,11 +453,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -521,10 +538,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,40 +870,40 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="5.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" style="1"/>
-    <col min="16" max="16" width="7.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.08984375" style="1"/>
-    <col min="21" max="21" width="14.1796875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.08984375" style="1"/>
-    <col min="23" max="23" width="10.81640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.46484375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="5.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.06640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="1"/>
+    <col min="16" max="16" width="7.19921875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.19921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.06640625" style="1"/>
+    <col min="21" max="21" width="14.19921875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.06640625" style="1"/>
+    <col min="23" max="23" width="13.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -941,8 +967,14 @@
       <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -962,7 +994,7 @@
       <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="7">
@@ -1003,11 +1035,17 @@
       </c>
       <c r="U2" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="29">
+        <v>0</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1063,7 @@
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="10">
@@ -1066,11 +1104,17 @@
       </c>
       <c r="U3" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -1088,7 +1132,7 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
@@ -1129,11 +1173,17 @@
       </c>
       <c r="U4" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1151,7 +1201,7 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
@@ -1192,11 +1242,17 @@
       </c>
       <c r="U5" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1214,7 +1270,7 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="8">
@@ -1255,11 +1311,17 @@
       </c>
       <c r="U6" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="29">
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -1275,7 +1337,7 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1315,12 +1377,18 @@
         <v>17</v>
       </c>
       <c r="U7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -1336,7 +1404,7 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1376,12 +1444,18 @@
         <v>17</v>
       </c>
       <c r="U8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1399,7 +1473,7 @@
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1439,12 +1513,18 @@
         <v>17</v>
       </c>
       <c r="U9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1544,7 @@
       <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="9">
@@ -1505,11 +1585,17 @@
       </c>
       <c r="U10" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -1527,7 +1613,7 @@
       <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -1567,12 +1653,18 @@
         <v>17</v>
       </c>
       <c r="U11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
         <v>79</v>
       </c>
@@ -1590,7 +1682,7 @@
       <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="25">
         <v>1</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -1630,12 +1722,18 @@
         <v>17</v>
       </c>
       <c r="U12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -1657,7 +1755,7 @@
       <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="10">
         <v>2</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -1697,12 +1795,18 @@
         <v>1</v>
       </c>
       <c r="U13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1828,7 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="10">
         <v>2</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1764,12 +1868,18 @@
         <v>1</v>
       </c>
       <c r="U14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1901,7 @@
       <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="10">
         <v>2</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1831,12 +1941,18 @@
         <v>1</v>
       </c>
       <c r="U15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1974,7 @@
       <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
       <c r="I16" s="9">
@@ -1899,11 +2015,17 @@
       </c>
       <c r="U16" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +2045,7 @@
       <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="10">
         <v>3</v>
       </c>
       <c r="I17" s="9">
@@ -1964,11 +2086,17 @@
       </c>
       <c r="U17" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="29">
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1986,7 +2114,7 @@
       <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="10">
         <v>3</v>
       </c>
       <c r="I18" s="9">
@@ -2027,11 +2155,17 @@
       </c>
       <c r="U18" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="29">
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2185,7 @@
       <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="10">
         <v>4</v>
       </c>
       <c r="I19" s="9">
@@ -2092,11 +2226,17 @@
       </c>
       <c r="U19" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2254,7 @@
       <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="10">
         <v>4</v>
       </c>
       <c r="I20" s="9">
@@ -2155,11 +2295,17 @@
       </c>
       <c r="U20" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="29">
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -2179,7 +2325,7 @@
       <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="10">
         <v>5</v>
       </c>
       <c r="I21" s="9">
@@ -2220,11 +2366,17 @@
       </c>
       <c r="U21" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="29">
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -2242,7 +2394,7 @@
       <c r="G22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="10">
         <v>5</v>
       </c>
       <c r="I22" s="9">
@@ -2283,11 +2435,17 @@
       </c>
       <c r="U22" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -2307,7 +2465,7 @@
       <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="10">
         <v>6</v>
       </c>
       <c r="I23" s="9">
@@ -2348,11 +2506,17 @@
       </c>
       <c r="U23" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -2374,7 +2538,7 @@
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="10">
         <v>7</v>
       </c>
       <c r="I24" s="9">
@@ -2415,11 +2579,17 @@
       </c>
       <c r="U24" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +2611,7 @@
       <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="10">
         <v>8</v>
       </c>
       <c r="I25" s="9">
@@ -2482,11 +2652,17 @@
       </c>
       <c r="U25" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="29">
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2684,7 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="10">
         <v>9</v>
       </c>
       <c r="I26" s="9">
@@ -2550,8 +2726,14 @@
       <c r="U26" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
@@ -2573,7 +2755,7 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="10">
         <v>10</v>
       </c>
       <c r="I27" s="9">
@@ -2615,8 +2797,14 @@
       <c r="U27" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
@@ -2638,7 +2826,7 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="10">
         <v>11</v>
       </c>
       <c r="I28" s="9">
@@ -2680,8 +2868,14 @@
       <c r="U28" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +2895,7 @@
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="10">
         <v>12</v>
       </c>
       <c r="I29" s="9">
@@ -2743,8 +2937,14 @@
       <c r="U29" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2962,7 @@
       <c r="G30" s="9">
         <v>1</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="10">
         <v>12</v>
       </c>
       <c r="I30" s="9">
@@ -2804,8 +3004,14 @@
       <c r="U30" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +3033,7 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="10">
         <v>13</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -2869,8 +3075,14 @@
       <c r="U31" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -2892,7 +3104,7 @@
       <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="10">
         <v>14</v>
       </c>
       <c r="I32" s="9">
@@ -2934,8 +3146,14 @@
       <c r="U32" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +3171,7 @@
       <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="10">
         <v>14</v>
       </c>
       <c r="I33" s="9">
@@ -2995,8 +3213,14 @@
       <c r="U33" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>47</v>
       </c>
@@ -3018,7 +3242,7 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="10">
         <v>15</v>
       </c>
       <c r="I34" s="9">
@@ -3060,8 +3284,14 @@
       <c r="U34" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
@@ -3083,7 +3313,7 @@
       <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="10">
         <v>16</v>
       </c>
       <c r="I35" s="9">
@@ -3125,8 +3355,14 @@
       <c r="U35" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>48</v>
       </c>
@@ -3144,7 +3380,7 @@
       <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="10">
         <v>16</v>
       </c>
       <c r="I36" s="9">
@@ -3186,8 +3422,14 @@
       <c r="U36" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -3209,7 +3451,7 @@
       <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="8">
         <v>17</v>
       </c>
       <c r="I37" s="7">
@@ -3251,8 +3493,14 @@
       <c r="U37" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -3274,7 +3522,7 @@
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="10">
         <v>18</v>
       </c>
       <c r="I38" s="9">
@@ -3316,8 +3564,14 @@
       <c r="U38" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3593,7 @@
       <c r="G39" s="9">
         <v>0</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="10">
         <v>19</v>
       </c>
       <c r="I39" s="9">
@@ -3381,8 +3635,14 @@
       <c r="U39" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>43</v>
       </c>
@@ -3404,7 +3664,7 @@
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="10">
         <v>20</v>
       </c>
       <c r="I40" s="9">
@@ -3446,8 +3706,14 @@
       <c r="U40" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3735,7 @@
       <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="10">
         <v>21</v>
       </c>
       <c r="I41" s="9">
@@ -3511,8 +3777,14 @@
       <c r="U41" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W41" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -3534,7 +3806,7 @@
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="10">
         <v>21</v>
       </c>
       <c r="I42" s="9">
@@ -3576,8 +3848,14 @@
       <c r="U42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>66</v>
       </c>
@@ -3599,7 +3877,7 @@
       <c r="G43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="10">
         <v>21</v>
       </c>
       <c r="I43" s="9" t="s">
@@ -3641,8 +3919,14 @@
       <c r="U43" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>64</v>
       </c>
@@ -3664,7 +3948,7 @@
       <c r="G44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="10">
         <v>21</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -3706,8 +3990,14 @@
       <c r="U44" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W44" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>76</v>
       </c>
@@ -3725,7 +4015,7 @@
       <c r="G45" s="15">
         <v>1</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="25">
         <v>22</v>
       </c>
       <c r="I45" s="15">
@@ -3767,8 +4057,14 @@
       <c r="U45" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>82</v>
       </c>
@@ -3788,7 +4084,7 @@
       <c r="G46" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="25">
         <v>23</v>
       </c>
       <c r="I46" s="14" t="s">
@@ -3830,8 +4126,14 @@
       <c r="U46" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="17" t="s">
         <v>81</v>
       </c>
@@ -3851,7 +4153,7 @@
       <c r="G47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="25">
         <v>24</v>
       </c>
       <c r="I47" s="14" t="s">
@@ -3893,8 +4195,14 @@
       <c r="U47" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>80</v>
       </c>
@@ -3914,7 +4222,7 @@
       <c r="G48" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="25">
         <v>25</v>
       </c>
       <c r="I48" s="14" t="s">
@@ -3956,8 +4264,14 @@
       <c r="U48" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="17" t="s">
         <v>77</v>
       </c>
@@ -3977,7 +4291,7 @@
       <c r="G49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="25">
         <v>26</v>
       </c>
       <c r="I49" s="14" t="s">
@@ -4019,8 +4333,14 @@
       <c r="U49" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
@@ -4042,7 +4362,7 @@
       <c r="G50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="9">
@@ -4084,8 +4404,14 @@
       <c r="U50" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W50" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
@@ -4107,7 +4433,7 @@
       <c r="G51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="9">
@@ -4149,8 +4475,14 @@
       <c r="U51" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>84</v>
       </c>
@@ -4179,7 +4511,7 @@
       <c r="T52" s="15"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
         <v>83</v>
       </c>
@@ -4206,7 +4538,7 @@
       <c r="T53" s="15"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>85</v>
       </c>

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$54</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
-  <si>
-    <t>PCSrc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="91">
   <si>
     <t>RegWrite</t>
   </si>
@@ -890,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y54" sqref="Y54"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -905,41 +902,40 @@
     <col min="2" max="2" width="13.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.46484375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.46484375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.06640625" style="1"/>
-    <col min="12" max="12" width="5.796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.06640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="1"/>
-    <col min="16" max="16" width="7.19921875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.19921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.06640625" style="1"/>
-    <col min="21" max="21" width="14.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.06640625" style="1"/>
-    <col min="23" max="23" width="13.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.59765625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="8.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.46484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="1"/>
+    <col min="11" max="11" width="5.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.06640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="1"/>
+    <col min="15" max="15" width="7.19921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.19921875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.19921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.06640625" style="1"/>
+    <col min="20" max="20" width="14.19921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625" style="1"/>
+    <col min="22" max="22" width="13.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1328125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -954,31 +950,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>12</v>
@@ -989,25 +985,22 @@
       <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>15</v>
+      <c r="U1" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="29" t="s">
-        <v>91</v>
+      <c r="W1" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1017,19 +1010,19 @@
         <v>100000</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
       </c>
       <c r="I2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -1050,39 +1043,36 @@
         <v>0</v>
       </c>
       <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
       </c>
       <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="30">
+        <v>0</v>
       </c>
       <c r="V2" s="30">
         <v>0</v>
       </c>
-      <c r="W2" s="30">
-        <v>0</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>1000</v>
@@ -1090,13 +1080,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -1123,39 +1113,36 @@
         <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>1</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
       </c>
       <c r="S3" s="9">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="30">
+        <v>0</v>
       </c>
       <c r="V3" s="30">
         <v>0</v>
       </c>
-      <c r="W3" s="30">
-        <v>0</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7">
         <v>100000</v>
@@ -1163,13 +1150,13 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1190,45 +1177,42 @@
         <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>17</v>
+      <c r="Q4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="30">
+        <v>0</v>
       </c>
       <c r="V4" s="30">
         <v>0</v>
       </c>
-      <c r="W4" s="30">
-        <v>0</v>
-      </c>
-      <c r="X4" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W4" s="26">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7">
         <v>100001</v>
@@ -1236,13 +1220,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1263,45 +1247,42 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>17</v>
+      <c r="Q5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="30">
+        <v>0</v>
       </c>
       <c r="V5" s="30">
         <v>0</v>
       </c>
-      <c r="W5" s="30">
-        <v>0</v>
-      </c>
-      <c r="X5" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W5" s="27">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7">
         <v>100011</v>
@@ -1309,13 +1290,13 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1336,45 +1317,42 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>17</v>
+      <c r="Q6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="30">
+        <v>0</v>
       </c>
       <c r="V6" s="30">
         <v>0</v>
       </c>
-      <c r="W6" s="30">
-        <v>0</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3">
         <v>101000</v>
@@ -1383,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -1404,48 +1382,45 @@
         <v>0</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
+      <c r="P7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
       </c>
       <c r="V7" s="30">
         <v>0</v>
       </c>
-      <c r="W7" s="30">
-        <v>0</v>
+      <c r="W7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3">
         <v>101001</v>
@@ -1454,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -1475,48 +1450,45 @@
         <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
+      <c r="P8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U8" s="30">
+        <v>0</v>
       </c>
       <c r="V8" s="30">
         <v>0</v>
       </c>
-      <c r="W8" s="30">
-        <v>0</v>
+      <c r="W8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3">
         <v>101011</v>
@@ -1527,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1548,48 +1520,45 @@
         <v>0</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
+      <c r="P9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U9" s="30">
+        <v>0</v>
       </c>
       <c r="V9" s="30">
         <v>0</v>
       </c>
-      <c r="W9" s="30">
-        <v>0</v>
+      <c r="W9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1599,19 +1568,19 @@
         <v>100010</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -1632,39 +1601,36 @@
         <v>0</v>
       </c>
       <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
       </c>
       <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="30">
+        <v>0</v>
       </c>
       <c r="V10" s="30">
         <v>0</v>
       </c>
-      <c r="W10" s="30">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="17">
         <v>100</v>
@@ -1672,19 +1638,19 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
       </c>
       <c r="J11" s="14">
         <v>0</v>
@@ -1702,42 +1668,39 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U11" s="30">
+        <v>0</v>
       </c>
       <c r="V11" s="30">
         <v>0</v>
       </c>
-      <c r="W11" s="30">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y11" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="17">
         <v>101</v>
@@ -1745,19 +1708,19 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
       </c>
       <c r="J12" s="14">
         <v>0</v>
@@ -1775,48 +1738,45 @@
         <v>0</v>
       </c>
       <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U12" s="30">
+        <v>0</v>
       </c>
       <c r="V12" s="30">
         <v>0</v>
       </c>
-      <c r="W12" s="30">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y12" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3">
         <v>11000</v>
@@ -1827,20 +1787,20 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="9">
         <v>2</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>17</v>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
       <c r="K13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="8">
         <v>0</v>
@@ -1854,46 +1814,43 @@
       <c r="O13" s="8">
         <v>0</v>
       </c>
-      <c r="P13" s="8">
-        <v>0</v>
+      <c r="P13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="8">
-        <v>1</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
       </c>
       <c r="V13" s="30">
         <v>0</v>
       </c>
-      <c r="W13" s="30">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y13" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>11100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1904,23 +1861,23 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="9">
         <v>2</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>17</v>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
@@ -1931,46 +1888,43 @@
       <c r="O14" s="8">
         <v>0</v>
       </c>
-      <c r="P14" s="8">
-        <v>0</v>
+      <c r="P14" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T14" s="8">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="30">
+        <v>0</v>
       </c>
       <c r="V14" s="30">
         <v>0</v>
       </c>
-      <c r="W14" s="30">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>11100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -1981,14 +1935,14 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="9">
         <v>2</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>17</v>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
@@ -1997,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
@@ -2008,64 +1962,61 @@
       <c r="O15" s="8">
         <v>0</v>
       </c>
-      <c r="P15" s="8">
-        <v>0</v>
+      <c r="P15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="8">
-        <v>1</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
       </c>
       <c r="V15" s="30">
         <v>0</v>
       </c>
-      <c r="W15" s="30">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y15" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>11100</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>2</v>
       </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
       <c r="I16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
@@ -2086,39 +2037,36 @@
         <v>0</v>
       </c>
       <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
       </c>
       <c r="S16" s="8">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="30">
+        <v>0</v>
       </c>
       <c r="V16" s="30">
         <v>0</v>
       </c>
-      <c r="W16" s="30">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y16" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -2128,19 +2076,19 @@
         <v>100100</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <v>3</v>
       </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
       <c r="I17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
         <v>0</v>
@@ -2161,39 +2109,36 @@
         <v>0</v>
       </c>
       <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>1</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
       </c>
       <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>1</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="30">
+        <v>0</v>
       </c>
       <c r="V17" s="30">
         <v>0</v>
       </c>
-      <c r="W17" s="30">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>1100</v>
@@ -2201,17 +2146,17 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="9">
         <v>3</v>
       </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
       <c r="I18" s="8">
         <v>0</v>
       </c>
@@ -2234,39 +2179,36 @@
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
       </c>
       <c r="S18" s="8">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="30">
+        <v>0</v>
       </c>
       <c r="V18" s="30">
         <v>0</v>
       </c>
-      <c r="W18" s="30">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y18" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -2276,19 +2218,19 @@
         <v>100101</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>4</v>
       </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
       <c r="I19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -2309,39 +2251,36 @@
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
       </c>
       <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8">
-        <v>1</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="30">
+        <v>0</v>
       </c>
       <c r="V19" s="30">
         <v>0</v>
       </c>
-      <c r="W19" s="30">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
         <v>1101</v>
@@ -2349,17 +2288,17 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="G20" s="9">
         <v>4</v>
       </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
       <c r="I20" s="8">
         <v>0</v>
       </c>
@@ -2382,39 +2321,36 @@
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>1</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
       </c>
       <c r="S20" s="8">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8">
-        <v>1</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" s="30">
+        <v>0</v>
       </c>
       <c r="V20" s="30">
         <v>0</v>
       </c>
-      <c r="W20" s="30">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2424,19 +2360,19 @@
         <v>100110</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <v>5</v>
       </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>0</v>
@@ -2457,39 +2393,36 @@
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
       </c>
       <c r="S21" s="8">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="30">
+        <v>0</v>
       </c>
       <c r="V21" s="30">
         <v>0</v>
       </c>
-      <c r="W21" s="30">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y21" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>1110</v>
@@ -2497,17 +2430,17 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G22" s="9">
         <v>5</v>
       </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
       <c r="I22" s="8">
         <v>0</v>
       </c>
@@ -2530,39 +2463,36 @@
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>1</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
       </c>
       <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8">
-        <v>1</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="30">
+        <v>0</v>
       </c>
       <c r="V22" s="30">
         <v>0</v>
       </c>
-      <c r="W22" s="30">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y22" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -2572,19 +2502,19 @@
         <v>100111</v>
       </c>
       <c r="E23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>6</v>
       </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
       <c r="I23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
         <v>0</v>
@@ -2605,140 +2535,134 @@
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>1</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
       </c>
       <c r="S23" s="8">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8">
-        <v>1</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" s="30">
+        <v>0</v>
       </c>
       <c r="V23" s="30">
         <v>0</v>
       </c>
-      <c r="W23" s="30">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y23" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="30">
+        <v>0</v>
+      </c>
+      <c r="V24" s="30">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>7</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>1</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="8">
-        <v>0</v>
-      </c>
-      <c r="T24" s="8">
-        <v>1</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24" s="30">
-        <v>0</v>
-      </c>
-      <c r="W24" s="30">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y24" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <v>8</v>
       </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
       <c r="I25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
@@ -2759,63 +2683,60 @@
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>1</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
       </c>
       <c r="S25" s="8">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8">
-        <v>1</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="30">
+        <v>0</v>
       </c>
       <c r="V25" s="30">
         <v>0</v>
       </c>
-      <c r="W25" s="30">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y25" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <v>9</v>
       </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
       <c r="I26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
@@ -2836,63 +2757,60 @@
         <v>0</v>
       </c>
       <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>1</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
-        <v>1</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="30">
+        <v>0</v>
       </c>
       <c r="V26" s="30">
         <v>0</v>
       </c>
-      <c r="W26" s="30">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y26" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3">
         <v>11</v>
       </c>
       <c r="E27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <v>10</v>
       </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
       <c r="I27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
         <v>0</v>
@@ -2913,63 +2831,60 @@
         <v>0</v>
       </c>
       <c r="P27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>1</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
       </c>
       <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>1</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="30">
+        <v>0</v>
       </c>
       <c r="V27" s="30">
         <v>0</v>
       </c>
-      <c r="W27" s="30">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y27" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>11111</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3">
         <v>100000</v>
       </c>
       <c r="E28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <v>11</v>
       </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
       <c r="I28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
         <v>0</v>
@@ -2990,39 +2905,36 @@
         <v>0</v>
       </c>
       <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>1</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
       </c>
       <c r="S28" s="8">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="30">
+        <v>0</v>
       </c>
       <c r="V28" s="30">
         <v>0</v>
       </c>
-      <c r="W28" s="30">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y28" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -3032,19 +2944,19 @@
         <v>100001</v>
       </c>
       <c r="E29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
         <v>12</v>
       </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
       <c r="I29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
         <v>0</v>
@@ -3065,39 +2977,36 @@
         <v>0</v>
       </c>
       <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>1</v>
-      </c>
-      <c r="R29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="30">
+        <v>0</v>
+      </c>
+      <c r="V29" s="30">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A30" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="S29" s="8">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
-        <v>1</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="V29" s="30">
-        <v>0</v>
-      </c>
-      <c r="W29" s="30">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="B30" s="3">
         <v>1001</v>
@@ -3105,17 +3014,17 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="G30" s="9">
         <v>12</v>
       </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
       <c r="I30" s="8">
         <v>0</v>
       </c>
@@ -3138,45 +3047,42 @@
         <v>0</v>
       </c>
       <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>1</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
       </c>
       <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>1</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="30">
+        <v>0</v>
       </c>
       <c r="V30" s="30">
         <v>0</v>
       </c>
-      <c r="W30" s="30">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y30" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3">
         <v>11001</v>
@@ -3187,20 +3093,20 @@
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="G31" s="9">
         <v>13</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>17</v>
+      <c r="H31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
       </c>
       <c r="K31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="8">
         <v>0</v>
@@ -3214,64 +3120,61 @@
       <c r="O31" s="8">
         <v>0</v>
       </c>
-      <c r="P31" s="8">
-        <v>0</v>
+      <c r="P31" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T31" s="8">
-        <v>1</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S31" s="8">
+        <v>1</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="30">
+        <v>0</v>
       </c>
       <c r="V31" s="30">
         <v>0</v>
       </c>
-      <c r="W31" s="30">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y31" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="3">
         <v>101010</v>
       </c>
       <c r="E32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
         <v>14</v>
       </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
       <c r="I32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="8">
         <v>0</v>
@@ -3292,39 +3195,36 @@
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>1</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
       </c>
       <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>1</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="30">
+        <v>0</v>
       </c>
       <c r="V32" s="30">
         <v>0</v>
       </c>
-      <c r="W32" s="30">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y32" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
         <v>1010</v>
@@ -3332,17 +3232,17 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="G33" s="9">
         <v>14</v>
       </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
       <c r="I33" s="8">
         <v>0</v>
       </c>
@@ -3365,63 +3265,60 @@
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>1</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
       </c>
       <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <v>1</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="30">
+        <v>0</v>
       </c>
       <c r="V33" s="30">
         <v>0</v>
       </c>
-      <c r="W33" s="30">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y33" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3">
         <v>11111</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3">
         <v>100000</v>
       </c>
       <c r="E34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
         <v>15</v>
       </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
       <c r="I34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="8">
         <v>0</v>
@@ -3442,63 +3339,60 @@
         <v>0</v>
       </c>
       <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>1</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
       </c>
       <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>1</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" s="30">
+        <v>0</v>
       </c>
       <c r="V34" s="30">
         <v>0</v>
       </c>
-      <c r="W34" s="30">
-        <v>0</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y34" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3">
         <v>101011</v>
       </c>
       <c r="E35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>16</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
       </c>
       <c r="I35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="8">
         <v>0</v>
@@ -3519,39 +3413,36 @@
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>1</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
       </c>
       <c r="S35" s="8">
-        <v>0</v>
-      </c>
-      <c r="T35" s="8">
-        <v>1</v>
-      </c>
-      <c r="U35" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" s="30">
+        <v>0</v>
       </c>
       <c r="V35" s="30">
         <v>0</v>
       </c>
-      <c r="W35" s="30">
-        <v>0</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y35" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
         <v>1011</v>
@@ -3559,16 +3450,16 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-      <c r="H36" s="9">
-        <v>16</v>
+      <c r="G36" s="9">
+        <v>16</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
@@ -3592,63 +3483,60 @@
         <v>0</v>
       </c>
       <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>1</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
       </c>
       <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>1</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="30">
+        <v>0</v>
       </c>
       <c r="V36" s="30">
         <v>0</v>
       </c>
-      <c r="W36" s="30">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y36" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3">
         <v>100</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
         <v>17</v>
       </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
       <c r="I37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="6">
         <v>0</v>
@@ -3669,63 +3557,60 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
       </c>
       <c r="S37" s="6">
-        <v>0</v>
-      </c>
-      <c r="T37" s="6">
-        <v>1</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U37" s="30">
+        <v>0</v>
       </c>
       <c r="V37" s="30">
         <v>0</v>
       </c>
-      <c r="W37" s="30">
-        <v>0</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y37" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="3">
         <v>110</v>
       </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
         <v>18</v>
       </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
       <c r="I38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="8">
         <v>0</v>
@@ -3746,63 +3631,60 @@
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>1</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
       </c>
       <c r="S38" s="8">
-        <v>0</v>
-      </c>
-      <c r="T38" s="8">
-        <v>1</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="30">
+        <v>0</v>
       </c>
       <c r="V38" s="30">
         <v>0</v>
       </c>
-      <c r="W38" s="30">
-        <v>0</v>
-      </c>
-      <c r="X38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y38" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3">
         <v>111</v>
       </c>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
         <v>19</v>
       </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
       <c r="I39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="8">
         <v>0</v>
@@ -3823,63 +3705,60 @@
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>1</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
       </c>
       <c r="S39" s="8">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8">
-        <v>1</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U39" s="30">
+        <v>0</v>
       </c>
       <c r="V39" s="30">
         <v>0</v>
       </c>
-      <c r="W39" s="30">
-        <v>0</v>
-      </c>
-      <c r="X39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y39" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3">
         <v>110</v>
       </c>
       <c r="E40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
         <v>20</v>
       </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
       <c r="I40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="8">
         <v>0</v>
@@ -3900,63 +3779,60 @@
         <v>0</v>
       </c>
       <c r="P40" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8">
-        <v>1</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
       </c>
       <c r="S40" s="8">
-        <v>0</v>
-      </c>
-      <c r="T40" s="8">
-        <v>1</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" s="30">
+        <v>0</v>
       </c>
       <c r="V40" s="30">
         <v>0</v>
       </c>
-      <c r="W40" s="30">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y40" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="3">
         <v>1011</v>
       </c>
       <c r="E41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
         <v>21</v>
       </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
       <c r="I41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="8">
         <v>0</v>
@@ -3977,63 +3853,60 @@
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>1</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
       </c>
       <c r="S41" s="8">
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U41" s="30">
+        <v>0</v>
       </c>
       <c r="V41" s="30">
         <v>0</v>
       </c>
-      <c r="W41" s="30">
-        <v>0</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y41" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="3">
         <v>1010</v>
       </c>
       <c r="E42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
         <v>21</v>
       </c>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
       <c r="I42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="8">
         <v>0</v>
@@ -4054,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>1</v>
-      </c>
-      <c r="R42" s="8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
       </c>
       <c r="S42" s="8">
         <v>0</v>
@@ -4068,31 +3941,28 @@
       <c r="T42" s="8">
         <v>0</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="30">
         <v>0</v>
       </c>
       <c r="V42" s="30">
         <v>0</v>
       </c>
-      <c r="W42" s="30">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y42" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="3">
         <v>10001</v>
@@ -4100,20 +3970,20 @@
       <c r="E43" s="8">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="9">
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="9">
         <v>21</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>17</v>
+      <c r="H43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
       </c>
       <c r="J43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -4130,46 +4000,43 @@
       <c r="O43" s="8">
         <v>0</v>
       </c>
-      <c r="P43" s="8">
-        <v>0</v>
+      <c r="P43" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="8">
-        <v>1</v>
-      </c>
-      <c r="U43" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S43" s="8">
+        <v>1</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="30">
+        <v>0</v>
       </c>
       <c r="V43" s="30">
         <v>0</v>
       </c>
-      <c r="W43" s="30">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y43" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D44" s="3">
         <v>10011</v>
@@ -4177,23 +4044,23 @@
       <c r="E44" s="8">
         <v>0</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="F44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="9">
         <v>21</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>17</v>
+      <c r="H44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
       </c>
       <c r="J44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="8">
         <v>0</v>
@@ -4207,40 +4074,37 @@
       <c r="O44" s="8">
         <v>0</v>
       </c>
-      <c r="P44" s="8">
-        <v>0</v>
+      <c r="P44" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T44" s="8">
-        <v>1</v>
-      </c>
-      <c r="U44" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="S44" s="8">
+        <v>1</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="30">
+        <v>0</v>
       </c>
       <c r="V44" s="30">
         <v>0</v>
       </c>
-      <c r="W44" s="30">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y44" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="15">
         <v>1111</v>
@@ -4248,17 +4112,17 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="14">
         <v>1</v>
       </c>
-      <c r="G45" s="14">
-        <v>1</v>
-      </c>
-      <c r="H45" s="24">
+      <c r="G45" s="24">
         <v>22</v>
       </c>
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
       <c r="I45" s="14">
         <v>0</v>
       </c>
@@ -4281,61 +4145,58 @@
         <v>0</v>
       </c>
       <c r="P45" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>1</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="14">
+        <v>0</v>
       </c>
       <c r="S45" s="14">
-        <v>0</v>
-      </c>
-      <c r="T45" s="14">
-        <v>1</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="30">
+        <v>0</v>
       </c>
       <c r="V45" s="30">
         <v>0</v>
       </c>
-      <c r="W45" s="30">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y45" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="17">
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="24">
         <v>23</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>17</v>
+      <c r="H46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
       </c>
       <c r="J46" s="14">
         <v>0</v>
@@ -4353,64 +4214,61 @@
         <v>0</v>
       </c>
       <c r="O46" s="14">
-        <v>0</v>
-      </c>
-      <c r="P46" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U46" s="30">
+        <v>0</v>
       </c>
       <c r="V46" s="30">
         <v>0</v>
       </c>
-      <c r="W46" s="30">
-        <v>0</v>
-      </c>
-      <c r="X46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y46" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="17">
         <v>110</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="24">
         <v>24</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>17</v>
+      <c r="H47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
       </c>
       <c r="J47" s="14">
         <v>0</v>
@@ -4428,64 +4286,61 @@
         <v>0</v>
       </c>
       <c r="O47" s="14">
-        <v>0</v>
-      </c>
-      <c r="P47" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U47" s="30">
+        <v>0</v>
       </c>
       <c r="V47" s="30">
         <v>0</v>
       </c>
-      <c r="W47" s="30">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y47" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="17">
         <v>111</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14">
-        <v>1</v>
-      </c>
-      <c r="F48" s="14">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="24">
         <v>25</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>17</v>
+      <c r="H48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
       </c>
       <c r="J48" s="14">
         <v>0</v>
@@ -4503,64 +4358,61 @@
         <v>0</v>
       </c>
       <c r="O48" s="14">
-        <v>0</v>
-      </c>
-      <c r="P48" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U48" s="30">
+        <v>0</v>
       </c>
       <c r="V48" s="30">
         <v>0</v>
       </c>
-      <c r="W48" s="30">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y48" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="17">
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14">
-        <v>1</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="24">
         <v>26</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>17</v>
+      <c r="H49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
       </c>
       <c r="J49" s="14">
         <v>0</v>
@@ -4578,66 +4430,63 @@
         <v>0</v>
       </c>
       <c r="O49" s="14">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U49" s="30">
+        <v>0</v>
       </c>
       <c r="V49" s="30">
         <v>0</v>
       </c>
-      <c r="W49" s="30">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y49" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X49" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="3">
         <v>10000</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1</v>
       </c>
       <c r="I50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="8">
         <v>0</v>
@@ -4657,11 +4506,11 @@
       <c r="O50" s="8">
         <v>0</v>
       </c>
-      <c r="P50" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>17</v>
+      <c r="P50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>1</v>
       </c>
       <c r="R50" s="8">
         <v>1</v>
@@ -4669,52 +4518,49 @@
       <c r="S50" s="8">
         <v>1</v>
       </c>
-      <c r="T50" s="8">
-        <v>1</v>
-      </c>
-      <c r="U50" s="8" t="s">
-        <v>17</v>
+      <c r="T50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" s="30">
+        <v>0</v>
       </c>
       <c r="V50" s="30">
         <v>0</v>
       </c>
-      <c r="W50" s="30">
-        <v>0</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y50" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X50" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D51" s="3">
         <v>10010</v>
       </c>
       <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1</v>
       </c>
       <c r="I51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="8">
         <v>0</v>
@@ -4734,40 +4580,37 @@
       <c r="O51" s="8">
         <v>0</v>
       </c>
-      <c r="P51" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>17</v>
+      <c r="P51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
       </c>
       <c r="R51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="8">
         <v>1</v>
       </c>
-      <c r="T51" s="8">
-        <v>1</v>
-      </c>
-      <c r="U51" s="8" t="s">
-        <v>17</v>
+      <c r="T51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="30">
+        <v>0</v>
       </c>
       <c r="V51" s="30">
         <v>0</v>
       </c>
-      <c r="W51" s="30">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y51" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X51" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -4776,223 +4619,213 @@
       <c r="D52" s="17">
         <v>1000</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
+      <c r="E52" s="34">
+        <v>0</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I52" s="34">
+        <v>0</v>
       </c>
       <c r="J52" s="34">
         <v>0</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="33">
         <v>0</v>
       </c>
       <c r="L52" s="33">
         <v>0</v>
       </c>
-      <c r="M52" s="33">
-        <v>0</v>
-      </c>
-      <c r="N52" s="34">
-        <v>0</v>
-      </c>
-      <c r="O52" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P52" s="34">
-        <v>0</v>
+      <c r="M52" s="34">
+        <v>0</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="34">
+        <v>0</v>
+      </c>
+      <c r="P52" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T52" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="U52" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U52" s="31">
+        <v>1</v>
       </c>
       <c r="V52" s="31">
-        <v>1</v>
-      </c>
-      <c r="W52" s="31">
-        <v>0</v>
-      </c>
-      <c r="X52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y52" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="W52" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A53" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="17">
         <v>10</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="34">
-        <v>0</v>
+      <c r="E53" s="34">
+        <v>0</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I53" s="34">
+        <v>0</v>
       </c>
       <c r="J53" s="34">
         <v>0</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="33">
         <v>0</v>
       </c>
       <c r="L53" s="33">
         <v>0</v>
       </c>
-      <c r="M53" s="33">
-        <v>0</v>
-      </c>
-      <c r="N53" s="34">
-        <v>0</v>
-      </c>
-      <c r="O53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P53" s="34">
-        <v>0</v>
+      <c r="M53" s="34">
+        <v>0</v>
+      </c>
+      <c r="N53" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="34">
+        <v>0</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="Q53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="U53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U53" s="31">
+        <v>1</v>
       </c>
       <c r="V53" s="31">
-        <v>1</v>
-      </c>
-      <c r="W53" s="31">
-        <v>0</v>
-      </c>
-      <c r="X53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y53" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="W53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="17">
         <v>11</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="34">
-        <v>1</v>
+      <c r="E54" s="34">
+        <v>0</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I54" s="34">
+        <v>0</v>
       </c>
       <c r="J54" s="34">
         <v>0</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="33">
         <v>0</v>
       </c>
       <c r="L54" s="33">
         <v>0</v>
       </c>
-      <c r="M54" s="33">
-        <v>0</v>
-      </c>
-      <c r="N54" s="34">
-        <v>0</v>
-      </c>
-      <c r="O54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="34">
-        <v>0</v>
+      <c r="M54" s="34">
+        <v>0</v>
+      </c>
+      <c r="N54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="34">
+        <v>0</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="Q54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="U54" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U54" s="31">
+        <v>1</v>
       </c>
       <c r="V54" s="31">
         <v>1</v>
       </c>
-      <c r="W54" s="31">
-        <v>1</v>
-      </c>
-      <c r="X54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y54" s="26" t="s">
-        <v>17</v>
+      <c r="W54" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:U54">
-    <sortCondition ref="H2:H54"/>
+  <sortState ref="A2:T54">
+    <sortCondition ref="G2:G54"/>
     <sortCondition ref="B2:B54"/>
-    <sortCondition ref="E2:E54"/>
     <sortCondition ref="A2:A54"/>
-    <sortCondition ref="U2:U54"/>
+    <sortCondition ref="T2:T54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Control Signals.xlsx
+++ b/Control Signals.xlsx
@@ -285,9 +285,6 @@
     <t>jal</t>
   </si>
   <si>
-    <t>[20-16] = 00011</t>
-  </si>
-  <si>
     <t>[20-16] = 00000</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>JumpAndLink</t>
+  </si>
+  <si>
+    <t>[20-16] = 00001</t>
   </si>
 </sst>
 </file>
@@ -880,10 +880,10 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -977,16 +977,16 @@
         <v>14</v>
       </c>
       <c r="U1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="W1" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="31">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="31">
@@ -3329,7 +3329,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="31">
@@ -3401,7 +3401,7 @@
         <v>111</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="31">
